--- a/Network analysis/pathway degree table.xlsx
+++ b/Network analysis/pathway degree table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/34420f5773a88cdb/Documents/UM documents/BMS Year 3/Internship ^M Thesis/Sabrina_BMS_Bachelor-Internship/Network analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{892C569E-E01D-465B-A7A5-B27ABE31C1F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{892C569E-E01D-465B-A7A5-B27ABE31C1F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{FE8122A4-4BA0-4D42-AE08-8BF2A1E6A92A}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{8B4CAEE6-7908-47F9-8CB1-644572425013}"/>
   </bookViews>
@@ -153,8 +153,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -182,8 +190,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -501,7 +510,7 @@
   <dimension ref="A1:B37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -509,11 +518,11 @@
     <col min="1" max="1" width="57.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>37</v>
       </c>
     </row>
@@ -807,5 +816,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>